--- a/Data/도배견적.xlsx
+++ b/Data/도배견적.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sample_python\InEstimate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0E00D-D5BB-4450-9957-8E673825F2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F5357-6ED1-40E2-A2F5-7B1EE4BFBA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="0" windowWidth="15795" windowHeight="15480" activeTab="3" xr2:uid="{390BE2C8-90B3-47FD-A976-69597472407F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{390BE2C8-90B3-47FD-A976-69597472407F}"/>
   </bookViews>
   <sheets>
     <sheet name="갑지" sheetId="3" r:id="rId1"/>
     <sheet name="상세내역" sheetId="2" r:id="rId2"/>
     <sheet name="원룸(X)" sheetId="1" r:id="rId3"/>
     <sheet name="철거" sheetId="4" r:id="rId4"/>
+    <sheet name="빅데이터" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">갑지!$A$1:$AR$55</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="224">
   <si>
     <t>A벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,6 +864,54 @@
   </si>
   <si>
     <t>벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX 디아망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX 휘앙세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX 테라피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평당가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX 베스띠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,7 +1831,148 @@
     <xf numFmtId="190" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,6 +1981,30 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,322 +2014,229 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,79 +2254,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:AT56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36:Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="12.75"/>
@@ -2558,28 +2616,28 @@
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="172" t="s">
+      <c r="N1" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
@@ -2594,65 +2652,65 @@
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
       <c r="AR2" s="31"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1">
       <c r="A3" s="30"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
       <c r="AR3" s="31"/>
     </row>
     <row r="4" spans="1:44" ht="15" customHeight="1" thickBot="1">
@@ -2661,92 +2719,92 @@
     </row>
     <row r="5" spans="1:44" ht="15" customHeight="1">
       <c r="A5" s="30"/>
-      <c r="B5" s="77">
+      <c r="B5" s="76">
         <v>2025</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="76">
         <v>7</v>
       </c>
-      <c r="G5" s="77"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="76">
         <v>6</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="176" t="s">
+      <c r="T5" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82" t="s">
+      <c r="U5" s="78"/>
+      <c r="V5" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="177"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="82"/>
     </row>
     <row r="6" spans="1:44" ht="15" customHeight="1">
       <c r="A6" s="30"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68" t="s">
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68" t="s">
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="179" t="s">
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
       <c r="AQ6" s="33" t="s">
         <v>64</v>
       </c>
@@ -2754,119 +2812,119 @@
     </row>
     <row r="7" spans="1:44" ht="15" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="35" t="s">
         <v>65</v>
       </c>
       <c r="P7" s="36"/>
       <c r="T7" s="79"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68" t="s">
+      <c r="U7" s="70"/>
+      <c r="V7" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="171"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="71"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="30"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68" t="s">
+      <c r="U8" s="70"/>
+      <c r="V8" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68" t="s">
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68" t="s">
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68" t="s">
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="AK8" s="68"/>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="171"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="71"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="30"/>
       <c r="B9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="T9" s="152"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146" t="s">
+      <c r="T9" s="80"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="146"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="146"/>
-      <c r="AO9" s="146"/>
-      <c r="AP9" s="146"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="178"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="81"/>
+      <c r="AM9" s="81"/>
+      <c r="AN9" s="81"/>
+      <c r="AO9" s="81"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="81"/>
+      <c r="AR9" s="83"/>
     </row>
     <row r="10" spans="1:44" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="41"/>
@@ -2881,51 +2939,51 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="100"/>
-      <c r="M10" s="158">
+      <c r="L10" s="94"/>
+      <c r="M10" s="95">
         <f>AJ10</f>
         <v>1260000</v>
       </c>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="100" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100" t="s">
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="159">
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="96">
         <f>ROUNDDOWN((Z50+AJ50), -4)</f>
         <v>1260000</v>
       </c>
-      <c r="AK10" s="159"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="159"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="159"/>
-      <c r="AQ10" s="159"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
       <c r="AR10" s="40" t="s">
         <v>74</v>
       </c>
@@ -2967,554 +3025,554 @@
       <c r="AR11" s="32"/>
     </row>
     <row r="12" spans="1:44" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89" t="s">
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="89" t="s">
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="163" t="s">
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="164"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="164"/>
-      <c r="AP12" s="164"/>
-      <c r="AQ12" s="164"/>
-      <c r="AR12" s="165"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="103"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="104"/>
     </row>
     <row r="13" spans="1:44" ht="15" customHeight="1">
       <c r="A13" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="133">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="101">
         <f>SUM(상세내역!E4:E18)</f>
         <v>119.80849000000002</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="90">
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="119">
         <f t="shared" ref="Z13:Z14" si="0">P13*T13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="167"/>
-      <c r="AL13" s="167"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="167"/>
-      <c r="AQ13" s="167"/>
-      <c r="AR13" s="168"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="107"/>
     </row>
     <row r="14" spans="1:44" ht="15" customHeight="1">
       <c r="A14" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="133">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="101">
         <f>SUM(상세내역!E19:E29)</f>
         <v>74.466300000000018</v>
       </c>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="90">
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="111"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="142"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="143"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="144"/>
     </row>
     <row r="15" spans="1:44" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="129"/>
-      <c r="AA15" s="129"/>
-      <c r="AB15" s="129"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="129"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="130"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="131"/>
-      <c r="AM15" s="131"/>
-      <c r="AN15" s="131"/>
-      <c r="AO15" s="131"/>
-      <c r="AP15" s="131"/>
-      <c r="AQ15" s="131"/>
-      <c r="AR15" s="132"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="158"/>
+      <c r="V15" s="158"/>
+      <c r="W15" s="158"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="160"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="162"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="162"/>
+      <c r="AP15" s="162"/>
+      <c r="AQ15" s="162"/>
+      <c r="AR15" s="163"/>
     </row>
     <row r="16" spans="1:44" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="102">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="171">
         <f>SUM(L13:S15)</f>
         <v>194.27479000000005</v>
       </c>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="105">
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="174">
         <f>L16*0.3025</f>
         <v>58.768123975000016</v>
       </c>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="91"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="121"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="167"/>
+      <c r="AH16" s="167"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="150"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="152"/>
     </row>
     <row r="17" spans="1:46" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
+      <c r="AG17" s="115"/>
+      <c r="AH17" s="115"/>
+      <c r="AI17" s="115"/>
+      <c r="AJ17" s="115"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
     </row>
     <row r="18" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="89" t="s">
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89" t="s">
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89" t="s">
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="112" t="s">
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="112" t="s">
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="153"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="88"/>
     </row>
     <row r="19" spans="1:46" ht="15" customHeight="1">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="82" t="s">
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82">
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78">
         <f>상세내역!S37</f>
         <v>3</v>
       </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="83">
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="89">
         <v>150000</v>
       </c>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="155">
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="91">
         <f t="shared" ref="Z19:Z41" si="1">P19*T19</f>
         <v>450000</v>
       </c>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="156"/>
-      <c r="AH19" s="156"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="155"/>
-      <c r="AK19" s="156"/>
-      <c r="AL19" s="156"/>
-      <c r="AM19" s="156"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="157"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="93"/>
       <c r="AS19" s="58">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="15" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="68" t="s">
+      <c r="A20" s="178"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68">
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70">
         <f>상세내역!Q37</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="69">
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="116">
         <v>250000</v>
       </c>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="71">
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="126">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="73"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="126"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="128"/>
       <c r="AS20" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:46" ht="15" customHeight="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68" t="s">
+      <c r="A21" s="178"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68">
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70">
         <f>상세내역!R37</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="69">
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="116">
         <v>150000</v>
       </c>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="71">
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="73"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="126"/>
+      <c r="AK21" s="127"/>
+      <c r="AL21" s="127"/>
+      <c r="AM21" s="127"/>
+      <c r="AN21" s="127"/>
+      <c r="AO21" s="127"/>
+      <c r="AP21" s="127"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="128"/>
       <c r="AS21" s="60">
         <f>AS20*10000</f>
         <v>50000</v>
@@ -3524,50 +3582,50 @@
       </c>
     </row>
     <row r="22" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="150"/>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="150"/>
-      <c r="AD22" s="150"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="150"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="149"/>
-      <c r="AK22" s="150"/>
-      <c r="AL22" s="150"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="150"/>
-      <c r="AO22" s="150"/>
-      <c r="AP22" s="150"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="151"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="112"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="114"/>
       <c r="AS22" s="60">
         <f>AS20*10000</f>
         <v>50000</v>
@@ -3577,55 +3635,55 @@
       </c>
     </row>
     <row r="23" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="96">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="137">
         <f xml:space="preserve"> SUM(Z19:AI22)</f>
         <v>950000</v>
       </c>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="98"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="137"/>
+      <c r="AK23" s="138"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="138"/>
+      <c r="AN23" s="138"/>
+      <c r="AO23" s="138"/>
+      <c r="AP23" s="138"/>
+      <c r="AQ23" s="138"/>
+      <c r="AR23" s="139"/>
       <c r="AS23" s="60">
         <f>((Z23-(AS21+AS22))/AS20)</f>
         <v>170000</v>
@@ -3635,1162 +3693,1162 @@
       </c>
     </row>
     <row r="24" spans="1:46" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="81"/>
-      <c r="AP24" s="81"/>
-      <c r="AQ24" s="81"/>
-      <c r="AR24" s="81"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="166"/>
+      <c r="X24" s="166"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="115"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="115"/>
+      <c r="AD24" s="115"/>
+      <c r="AE24" s="115"/>
+      <c r="AF24" s="115"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="115"/>
+      <c r="AJ24" s="115"/>
+      <c r="AK24" s="115"/>
+      <c r="AL24" s="115"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="115"/>
     </row>
     <row r="25" spans="1:46" ht="15" customHeight="1">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82" t="s">
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="85">
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="87"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="122"/>
+      <c r="AK25" s="123"/>
+      <c r="AL25" s="123"/>
+      <c r="AM25" s="123"/>
+      <c r="AN25" s="123"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="124"/>
     </row>
     <row r="26" spans="1:46" ht="15" customHeight="1">
       <c r="A26" s="79"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68" t="s">
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68">
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70">
         <f>상세내역!N37</f>
         <v>8</v>
       </c>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69">
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="116">
         <f>상세내역!N38</f>
         <v>23000</v>
       </c>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="144">
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="118">
         <f t="shared" si="1"/>
         <v>184000</v>
       </c>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="90"/>
-      <c r="AM26" s="90"/>
-      <c r="AN26" s="90"/>
-      <c r="AO26" s="90"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="145"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="119"/>
+      <c r="AH26" s="119"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="119"/>
+      <c r="AL26" s="119"/>
+      <c r="AM26" s="119"/>
+      <c r="AN26" s="119"/>
+      <c r="AO26" s="119"/>
+      <c r="AP26" s="119"/>
+      <c r="AQ26" s="119"/>
+      <c r="AR26" s="120"/>
     </row>
     <row r="27" spans="1:46" ht="15" customHeight="1">
       <c r="A27" s="79"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68" t="s">
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="71">
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="73"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="127"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="127"/>
+      <c r="AN27" s="127"/>
+      <c r="AO27" s="127"/>
+      <c r="AP27" s="127"/>
+      <c r="AQ27" s="127"/>
+      <c r="AR27" s="128"/>
     </row>
     <row r="28" spans="1:46" ht="15" customHeight="1">
       <c r="A28" s="79"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="72"/>
-      <c r="AN28" s="72"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="73"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="126"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="126"/>
+      <c r="AK28" s="127"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="127"/>
+      <c r="AN28" s="127"/>
+      <c r="AO28" s="127"/>
+      <c r="AP28" s="127"/>
+      <c r="AQ28" s="127"/>
+      <c r="AR28" s="128"/>
     </row>
     <row r="29" spans="1:46" ht="15" customHeight="1">
       <c r="A29" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68">
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70">
         <f>상세내역!T37</f>
         <v>9</v>
       </c>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="69">
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="116">
         <f>상세내역!T38</f>
         <v>15000</v>
       </c>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="71">
+      <c r="U29" s="116"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="126">
         <f t="shared" si="1"/>
         <v>135000</v>
       </c>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="72"/>
-      <c r="AL29" s="72"/>
-      <c r="AM29" s="72"/>
-      <c r="AN29" s="72"/>
-      <c r="AO29" s="72"/>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
-      <c r="AR29" s="73"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="127"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="127"/>
+      <c r="AH29" s="127"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="126"/>
+      <c r="AK29" s="127"/>
+      <c r="AL29" s="127"/>
+      <c r="AM29" s="127"/>
+      <c r="AN29" s="127"/>
+      <c r="AO29" s="127"/>
+      <c r="AP29" s="127"/>
+      <c r="AQ29" s="127"/>
+      <c r="AR29" s="128"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1">
       <c r="A30" s="79"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68" t="s">
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68" t="s">
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="90">
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="119">
         <f>상세내역!U37</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="142">
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="129">
         <f>상세내역!U38</f>
         <v>0</v>
       </c>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="143"/>
-      <c r="Z30" s="71">
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="72"/>
-      <c r="AN30" s="72"/>
-      <c r="AO30" s="72"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="73"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="127"/>
+      <c r="AH30" s="127"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="126"/>
+      <c r="AK30" s="127"/>
+      <c r="AL30" s="127"/>
+      <c r="AM30" s="127"/>
+      <c r="AN30" s="127"/>
+      <c r="AO30" s="127"/>
+      <c r="AP30" s="127"/>
+      <c r="AQ30" s="127"/>
+      <c r="AR30" s="128"/>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1">
       <c r="A31" s="79"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68" t="s">
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="90">
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="119">
         <f>상세내역!V37</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="142">
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="129">
         <f>상세내역!V37</f>
         <v>0</v>
       </c>
-      <c r="U31" s="142"/>
-      <c r="V31" s="142"/>
-      <c r="W31" s="142"/>
-      <c r="X31" s="142"/>
-      <c r="Y31" s="143"/>
-      <c r="Z31" s="71">
+      <c r="U31" s="129"/>
+      <c r="V31" s="129"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="72"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="72"/>
-      <c r="AM31" s="72"/>
-      <c r="AN31" s="72"/>
-      <c r="AO31" s="72"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="73"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="127"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="127"/>
+      <c r="AL31" s="127"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="127"/>
+      <c r="AO31" s="127"/>
+      <c r="AP31" s="127"/>
+      <c r="AQ31" s="127"/>
+      <c r="AR31" s="128"/>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1">
       <c r="A32" s="79"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68" t="s">
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68" t="s">
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68">
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70">
         <f>상세내역!Y37</f>
         <v>1</v>
       </c>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="142">
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="129">
         <f>상세내역!Y38</f>
         <v>18000</v>
       </c>
-      <c r="U32" s="142"/>
-      <c r="V32" s="142"/>
-      <c r="W32" s="142"/>
-      <c r="X32" s="142"/>
-      <c r="Y32" s="143"/>
-      <c r="Z32" s="71">
+      <c r="U32" s="129"/>
+      <c r="V32" s="129"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="126">
         <f t="shared" ref="Z32" si="2">P32*T32</f>
         <v>18000</v>
       </c>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="72"/>
-      <c r="AN32" s="72"/>
-      <c r="AO32" s="72"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="73"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="128"/>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1">
       <c r="A33" s="79"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68" t="s">
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68">
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70">
         <f>상세내역!W37</f>
         <v>7</v>
       </c>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="69">
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="116">
         <f>상세내역!W38</f>
         <v>3500</v>
       </c>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="71">
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="126">
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="72"/>
-      <c r="AN33" s="72"/>
-      <c r="AO33" s="72"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
-      <c r="AR33" s="73"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="127"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="126"/>
+      <c r="AK33" s="127"/>
+      <c r="AL33" s="127"/>
+      <c r="AM33" s="127"/>
+      <c r="AN33" s="127"/>
+      <c r="AO33" s="127"/>
+      <c r="AP33" s="127"/>
+      <c r="AQ33" s="127"/>
+      <c r="AR33" s="128"/>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1">
       <c r="A34" s="79"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68" t="s">
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68">
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70">
         <f>상세내역!Z37</f>
         <v>5</v>
       </c>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="69">
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="116">
         <f>상세내역!Z38</f>
         <v>1300</v>
       </c>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="71">
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="126">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="73"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="127"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="127"/>
+      <c r="AH34" s="127"/>
+      <c r="AI34" s="128"/>
+      <c r="AJ34" s="126"/>
+      <c r="AK34" s="127"/>
+      <c r="AL34" s="127"/>
+      <c r="AM34" s="127"/>
+      <c r="AN34" s="127"/>
+      <c r="AO34" s="127"/>
+      <c r="AP34" s="127"/>
+      <c r="AQ34" s="127"/>
+      <c r="AR34" s="128"/>
     </row>
     <row r="35" spans="1:46" ht="15" customHeight="1">
       <c r="A35" s="79"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68" t="s">
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68">
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70">
         <f>상세내역!AA37</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="69">
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="116">
         <f>상세내역!AA38</f>
         <v>22000</v>
       </c>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="71">
+      <c r="U35" s="116"/>
+      <c r="V35" s="116"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="126">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="72"/>
-      <c r="AO35" s="72"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="73"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="127"/>
+      <c r="AC35" s="127"/>
+      <c r="AD35" s="127"/>
+      <c r="AE35" s="127"/>
+      <c r="AF35" s="127"/>
+      <c r="AG35" s="127"/>
+      <c r="AH35" s="127"/>
+      <c r="AI35" s="128"/>
+      <c r="AJ35" s="126"/>
+      <c r="AK35" s="127"/>
+      <c r="AL35" s="127"/>
+      <c r="AM35" s="127"/>
+      <c r="AN35" s="127"/>
+      <c r="AO35" s="127"/>
+      <c r="AP35" s="127"/>
+      <c r="AQ35" s="127"/>
+      <c r="AR35" s="128"/>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1">
       <c r="A36" s="79"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68" t="s">
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68">
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70">
         <f>상세내역!AB37</f>
         <v>3</v>
       </c>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="69">
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="116">
         <f>상세내역!AB38</f>
         <v>3500</v>
       </c>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="71">
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="126">
         <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="72"/>
-      <c r="AM36" s="72"/>
-      <c r="AN36" s="72"/>
-      <c r="AO36" s="72"/>
-      <c r="AP36" s="72"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="73"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="127"/>
+      <c r="AC36" s="127"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="127"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="127"/>
+      <c r="AH36" s="127"/>
+      <c r="AI36" s="128"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="127"/>
+      <c r="AL36" s="127"/>
+      <c r="AM36" s="127"/>
+      <c r="AN36" s="127"/>
+      <c r="AO36" s="127"/>
+      <c r="AP36" s="127"/>
+      <c r="AQ36" s="127"/>
+      <c r="AR36" s="128"/>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1">
       <c r="A37" s="79"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68" t="s">
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68">
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70">
         <f>상세내역!AC37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="69">
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="116">
         <f>상세내역!AC38</f>
         <v>8500</v>
       </c>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="70"/>
-      <c r="Z37" s="71">
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="126">
         <f t="shared" si="1"/>
         <v>8500</v>
       </c>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="72"/>
-      <c r="AL37" s="72"/>
-      <c r="AM37" s="72"/>
-      <c r="AN37" s="72"/>
-      <c r="AO37" s="72"/>
-      <c r="AP37" s="72"/>
-      <c r="AQ37" s="72"/>
-      <c r="AR37" s="73"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="127"/>
+      <c r="AC37" s="127"/>
+      <c r="AD37" s="127"/>
+      <c r="AE37" s="127"/>
+      <c r="AF37" s="127"/>
+      <c r="AG37" s="127"/>
+      <c r="AH37" s="127"/>
+      <c r="AI37" s="128"/>
+      <c r="AJ37" s="126"/>
+      <c r="AK37" s="127"/>
+      <c r="AL37" s="127"/>
+      <c r="AM37" s="127"/>
+      <c r="AN37" s="127"/>
+      <c r="AO37" s="127"/>
+      <c r="AP37" s="127"/>
+      <c r="AQ37" s="127"/>
+      <c r="AR37" s="128"/>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1">
       <c r="A38" s="79"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68">
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70">
         <v>1</v>
       </c>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="69">
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="116">
         <v>50000</v>
       </c>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="70"/>
-      <c r="Z38" s="71">
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="126">
         <f t="shared" ref="Z38" si="3">P38*T38</f>
         <v>50000</v>
       </c>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="73"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="72"/>
-      <c r="AL38" s="72"/>
-      <c r="AM38" s="72"/>
-      <c r="AN38" s="72"/>
-      <c r="AO38" s="72"/>
-      <c r="AP38" s="72"/>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="73"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="127"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="127"/>
+      <c r="AE38" s="127"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="127"/>
+      <c r="AH38" s="127"/>
+      <c r="AI38" s="128"/>
+      <c r="AJ38" s="126"/>
+      <c r="AK38" s="127"/>
+      <c r="AL38" s="127"/>
+      <c r="AM38" s="127"/>
+      <c r="AN38" s="127"/>
+      <c r="AO38" s="127"/>
+      <c r="AP38" s="127"/>
+      <c r="AQ38" s="127"/>
+      <c r="AR38" s="128"/>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1">
       <c r="A39" s="79"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="73"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="72"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="72"/>
-      <c r="AQ39" s="72"/>
-      <c r="AR39" s="73"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="126"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="128"/>
+      <c r="AJ39" s="126"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
+      <c r="AO39" s="127"/>
+      <c r="AP39" s="127"/>
+      <c r="AQ39" s="127"/>
+      <c r="AR39" s="128"/>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1">
       <c r="A40" s="79"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="73"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="72"/>
-      <c r="AM40" s="72"/>
-      <c r="AN40" s="72"/>
-      <c r="AO40" s="72"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="72"/>
-      <c r="AR40" s="73"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="126"/>
+      <c r="AA40" s="127"/>
+      <c r="AB40" s="127"/>
+      <c r="AC40" s="127"/>
+      <c r="AD40" s="127"/>
+      <c r="AE40" s="127"/>
+      <c r="AF40" s="127"/>
+      <c r="AG40" s="127"/>
+      <c r="AH40" s="127"/>
+      <c r="AI40" s="128"/>
+      <c r="AJ40" s="126"/>
+      <c r="AK40" s="127"/>
+      <c r="AL40" s="127"/>
+      <c r="AM40" s="127"/>
+      <c r="AN40" s="127"/>
+      <c r="AO40" s="127"/>
+      <c r="AP40" s="127"/>
+      <c r="AQ40" s="127"/>
+      <c r="AR40" s="128"/>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1">
       <c r="A41" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68" t="s">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68" t="s">
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68">
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70">
         <v>4</v>
       </c>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="69">
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="116">
         <v>2500</v>
       </c>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="71">
+      <c r="U41" s="116"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="116"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="126">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="72"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="72"/>
-      <c r="AF41" s="72"/>
-      <c r="AG41" s="72"/>
-      <c r="AH41" s="72"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="72"/>
-      <c r="AL41" s="72"/>
-      <c r="AM41" s="72"/>
-      <c r="AN41" s="72"/>
-      <c r="AO41" s="72"/>
-      <c r="AP41" s="72"/>
-      <c r="AQ41" s="72"/>
-      <c r="AR41" s="73"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="128"/>
+      <c r="AJ41" s="126"/>
+      <c r="AK41" s="127"/>
+      <c r="AL41" s="127"/>
+      <c r="AM41" s="127"/>
+      <c r="AN41" s="127"/>
+      <c r="AO41" s="127"/>
+      <c r="AP41" s="127"/>
+      <c r="AQ41" s="127"/>
+      <c r="AR41" s="128"/>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1">
       <c r="A42" s="79"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68" t="s">
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68" t="s">
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68">
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="70">
         <v>1</v>
       </c>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="69">
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="116">
         <f>ROUND((Z23*0.1)+SUM(Z26:AI38)*0.1, -2)</f>
         <v>140900</v>
       </c>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="71">
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="126">
         <f t="shared" ref="Z42" si="4">P42*T42</f>
         <v>140900</v>
       </c>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="72"/>
-      <c r="AL42" s="72"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="72"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="72"/>
-      <c r="AR42" s="73"/>
+      <c r="AA42" s="127"/>
+      <c r="AB42" s="127"/>
+      <c r="AC42" s="127"/>
+      <c r="AD42" s="127"/>
+      <c r="AE42" s="127"/>
+      <c r="AF42" s="127"/>
+      <c r="AG42" s="127"/>
+      <c r="AH42" s="127"/>
+      <c r="AI42" s="128"/>
+      <c r="AJ42" s="126"/>
+      <c r="AK42" s="127"/>
+      <c r="AL42" s="127"/>
+      <c r="AM42" s="127"/>
+      <c r="AN42" s="127"/>
+      <c r="AO42" s="127"/>
+      <c r="AP42" s="127"/>
+      <c r="AQ42" s="127"/>
+      <c r="AR42" s="128"/>
       <c r="AT42" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="79"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="72"/>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
-      <c r="AF43" s="72"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="72"/>
-      <c r="AI43" s="73"/>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="72"/>
-      <c r="AL43" s="72"/>
-      <c r="AM43" s="72"/>
-      <c r="AN43" s="72"/>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="72"/>
-      <c r="AR43" s="73"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="127"/>
+      <c r="AE43" s="127"/>
+      <c r="AF43" s="127"/>
+      <c r="AG43" s="127"/>
+      <c r="AH43" s="127"/>
+      <c r="AI43" s="128"/>
+      <c r="AJ43" s="126"/>
+      <c r="AK43" s="127"/>
+      <c r="AL43" s="127"/>
+      <c r="AM43" s="127"/>
+      <c r="AN43" s="127"/>
+      <c r="AO43" s="127"/>
+      <c r="AP43" s="127"/>
+      <c r="AQ43" s="127"/>
+      <c r="AR43" s="128"/>
     </row>
     <row r="44" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="96">
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="141"/>
+      <c r="Z44" s="137">
         <f>SUM(Z25:AI43)</f>
         <v>609900</v>
       </c>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="98"/>
-      <c r="AJ44" s="96"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="97"/>
-      <c r="AO44" s="97"/>
-      <c r="AP44" s="97"/>
-      <c r="AQ44" s="97"/>
-      <c r="AR44" s="98"/>
+      <c r="AA44" s="138"/>
+      <c r="AB44" s="138"/>
+      <c r="AC44" s="138"/>
+      <c r="AD44" s="138"/>
+      <c r="AE44" s="138"/>
+      <c r="AF44" s="138"/>
+      <c r="AG44" s="138"/>
+      <c r="AH44" s="138"/>
+      <c r="AI44" s="139"/>
+      <c r="AJ44" s="137"/>
+      <c r="AK44" s="138"/>
+      <c r="AL44" s="138"/>
+      <c r="AM44" s="138"/>
+      <c r="AN44" s="138"/>
+      <c r="AO44" s="138"/>
+      <c r="AP44" s="138"/>
+      <c r="AQ44" s="138"/>
+      <c r="AR44" s="139"/>
       <c r="AS44" s="60">
         <f>Z44-Z38-Z42</f>
         <v>419000</v>
@@ -4800,250 +4858,250 @@
       </c>
     </row>
     <row r="45" spans="1:46" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="81"/>
-      <c r="AM45" s="81"/>
-      <c r="AN45" s="81"/>
-      <c r="AO45" s="81"/>
-      <c r="AP45" s="81"/>
-      <c r="AQ45" s="81"/>
-      <c r="AR45" s="81"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="115"/>
+      <c r="AA45" s="115"/>
+      <c r="AB45" s="115"/>
+      <c r="AC45" s="115"/>
+      <c r="AD45" s="115"/>
+      <c r="AE45" s="115"/>
+      <c r="AF45" s="115"/>
+      <c r="AG45" s="115"/>
+      <c r="AH45" s="115"/>
+      <c r="AI45" s="115"/>
+      <c r="AJ45" s="115"/>
+      <c r="AK45" s="115"/>
+      <c r="AL45" s="115"/>
+      <c r="AM45" s="115"/>
+      <c r="AN45" s="115"/>
+      <c r="AO45" s="115"/>
+      <c r="AP45" s="115"/>
+      <c r="AQ45" s="115"/>
+      <c r="AR45" s="115"/>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82" t="s">
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82">
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78">
         <v>1</v>
       </c>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="83">
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="89">
         <v>409900</v>
       </c>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="83"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="85">
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="122">
         <f t="shared" ref="Z46" si="5">P46*T46</f>
         <v>409900</v>
       </c>
-      <c r="AA46" s="86"/>
-      <c r="AB46" s="86"/>
-      <c r="AC46" s="86"/>
-      <c r="AD46" s="86"/>
-      <c r="AE46" s="86"/>
-      <c r="AF46" s="86"/>
-      <c r="AG46" s="86"/>
-      <c r="AH46" s="86"/>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="85"/>
-      <c r="AK46" s="86"/>
-      <c r="AL46" s="86"/>
-      <c r="AM46" s="86"/>
-      <c r="AN46" s="86"/>
-      <c r="AO46" s="86"/>
-      <c r="AP46" s="86"/>
-      <c r="AQ46" s="86"/>
-      <c r="AR46" s="87"/>
+      <c r="AA46" s="123"/>
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="123"/>
+      <c r="AD46" s="123"/>
+      <c r="AE46" s="123"/>
+      <c r="AF46" s="123"/>
+      <c r="AG46" s="123"/>
+      <c r="AH46" s="123"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="122"/>
+      <c r="AK46" s="123"/>
+      <c r="AL46" s="123"/>
+      <c r="AM46" s="123"/>
+      <c r="AN46" s="123"/>
+      <c r="AO46" s="123"/>
+      <c r="AP46" s="123"/>
+      <c r="AQ46" s="123"/>
+      <c r="AR46" s="124"/>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="88"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="83"/>
-      <c r="V47" s="83"/>
-      <c r="W47" s="83"/>
-      <c r="X47" s="83"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="85"/>
-      <c r="AA47" s="86"/>
-      <c r="AB47" s="86"/>
-      <c r="AC47" s="86"/>
-      <c r="AD47" s="86"/>
-      <c r="AE47" s="86"/>
-      <c r="AF47" s="86"/>
-      <c r="AG47" s="86"/>
-      <c r="AH47" s="86"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="85"/>
-      <c r="AK47" s="86"/>
-      <c r="AL47" s="86"/>
-      <c r="AM47" s="86"/>
-      <c r="AN47" s="86"/>
-      <c r="AO47" s="86"/>
-      <c r="AP47" s="86"/>
-      <c r="AQ47" s="86"/>
-      <c r="AR47" s="87"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="121"/>
+      <c r="Z47" s="122"/>
+      <c r="AA47" s="123"/>
+      <c r="AB47" s="123"/>
+      <c r="AC47" s="123"/>
+      <c r="AD47" s="123"/>
+      <c r="AE47" s="123"/>
+      <c r="AF47" s="123"/>
+      <c r="AG47" s="123"/>
+      <c r="AH47" s="123"/>
+      <c r="AI47" s="124"/>
+      <c r="AJ47" s="122"/>
+      <c r="AK47" s="123"/>
+      <c r="AL47" s="123"/>
+      <c r="AM47" s="123"/>
+      <c r="AN47" s="123"/>
+      <c r="AO47" s="123"/>
+      <c r="AP47" s="123"/>
+      <c r="AQ47" s="123"/>
+      <c r="AR47" s="124"/>
     </row>
     <row r="48" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="83"/>
-      <c r="U48" s="83"/>
-      <c r="V48" s="83"/>
-      <c r="W48" s="83"/>
-      <c r="X48" s="83"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="85"/>
-      <c r="AA48" s="86"/>
-      <c r="AB48" s="86"/>
-      <c r="AC48" s="86"/>
-      <c r="AD48" s="86"/>
-      <c r="AE48" s="86"/>
-      <c r="AF48" s="86"/>
-      <c r="AG48" s="86"/>
-      <c r="AH48" s="86"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="85"/>
-      <c r="AK48" s="86"/>
-      <c r="AL48" s="86"/>
-      <c r="AM48" s="86"/>
-      <c r="AN48" s="86"/>
-      <c r="AO48" s="86"/>
-      <c r="AP48" s="86"/>
-      <c r="AQ48" s="86"/>
-      <c r="AR48" s="87"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="121"/>
+      <c r="Z48" s="122"/>
+      <c r="AA48" s="123"/>
+      <c r="AB48" s="123"/>
+      <c r="AC48" s="123"/>
+      <c r="AD48" s="123"/>
+      <c r="AE48" s="123"/>
+      <c r="AF48" s="123"/>
+      <c r="AG48" s="123"/>
+      <c r="AH48" s="123"/>
+      <c r="AI48" s="124"/>
+      <c r="AJ48" s="122"/>
+      <c r="AK48" s="123"/>
+      <c r="AL48" s="123"/>
+      <c r="AM48" s="123"/>
+      <c r="AN48" s="123"/>
+      <c r="AO48" s="123"/>
+      <c r="AP48" s="123"/>
+      <c r="AQ48" s="123"/>
+      <c r="AR48" s="124"/>
     </row>
     <row r="49" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
-      <c r="U49" s="100"/>
-      <c r="V49" s="100"/>
-      <c r="W49" s="100"/>
-      <c r="X49" s="100"/>
-      <c r="Y49" s="101"/>
-      <c r="Z49" s="96">
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
+      <c r="Y49" s="141"/>
+      <c r="Z49" s="137">
         <f>SUM(Z46:AI48)</f>
         <v>409900</v>
       </c>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="97"/>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="97"/>
-      <c r="AE49" s="97"/>
-      <c r="AF49" s="97"/>
-      <c r="AG49" s="97"/>
-      <c r="AH49" s="97"/>
-      <c r="AI49" s="98"/>
-      <c r="AJ49" s="96"/>
-      <c r="AK49" s="97"/>
-      <c r="AL49" s="97"/>
-      <c r="AM49" s="97"/>
-      <c r="AN49" s="97"/>
-      <c r="AO49" s="97"/>
-      <c r="AP49" s="97"/>
-      <c r="AQ49" s="97"/>
-      <c r="AR49" s="98"/>
+      <c r="AA49" s="138"/>
+      <c r="AB49" s="138"/>
+      <c r="AC49" s="138"/>
+      <c r="AD49" s="138"/>
+      <c r="AE49" s="138"/>
+      <c r="AF49" s="138"/>
+      <c r="AG49" s="138"/>
+      <c r="AH49" s="138"/>
+      <c r="AI49" s="139"/>
+      <c r="AJ49" s="137"/>
+      <c r="AK49" s="138"/>
+      <c r="AL49" s="138"/>
+      <c r="AM49" s="138"/>
+      <c r="AN49" s="138"/>
+      <c r="AO49" s="138"/>
+      <c r="AP49" s="138"/>
+      <c r="AQ49" s="138"/>
+      <c r="AR49" s="139"/>
       <c r="AS49" s="60">
         <f>Z50-AS50</f>
         <v>0</v>
@@ -5053,324 +5111,536 @@
       </c>
     </row>
     <row r="50" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="140"/>
-      <c r="R50" s="140"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="140"/>
-      <c r="U50" s="140"/>
-      <c r="V50" s="140"/>
-      <c r="W50" s="140"/>
-      <c r="X50" s="140"/>
-      <c r="Y50" s="141"/>
-      <c r="Z50" s="136">
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="136"/>
+      <c r="Z50" s="131">
         <f>Z23+Z44-Z49</f>
         <v>1150000</v>
       </c>
-      <c r="AA50" s="137"/>
-      <c r="AB50" s="137"/>
-      <c r="AC50" s="137"/>
-      <c r="AD50" s="137"/>
-      <c r="AE50" s="137"/>
-      <c r="AF50" s="137"/>
-      <c r="AG50" s="137"/>
-      <c r="AH50" s="137"/>
-      <c r="AI50" s="138"/>
-      <c r="AJ50" s="136">
+      <c r="AA50" s="132"/>
+      <c r="AB50" s="132"/>
+      <c r="AC50" s="132"/>
+      <c r="AD50" s="132"/>
+      <c r="AE50" s="132"/>
+      <c r="AF50" s="132"/>
+      <c r="AG50" s="132"/>
+      <c r="AH50" s="132"/>
+      <c r="AI50" s="133"/>
+      <c r="AJ50" s="131">
         <f>Z50*0.1</f>
         <v>115000</v>
       </c>
-      <c r="AK50" s="137"/>
-      <c r="AL50" s="137"/>
-      <c r="AM50" s="137"/>
-      <c r="AN50" s="137"/>
-      <c r="AO50" s="137"/>
-      <c r="AP50" s="137"/>
-      <c r="AQ50" s="137"/>
-      <c r="AR50" s="138"/>
+      <c r="AK50" s="132"/>
+      <c r="AL50" s="132"/>
+      <c r="AM50" s="132"/>
+      <c r="AN50" s="132"/>
+      <c r="AO50" s="132"/>
+      <c r="AP50" s="132"/>
+      <c r="AQ50" s="132"/>
+      <c r="AR50" s="133"/>
       <c r="AS50" s="60">
         <v>1150000</v>
       </c>
     </row>
     <row r="52" spans="1:46">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="80"/>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="80"/>
-      <c r="AE52" s="80"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="80"/>
-      <c r="AH52" s="80"/>
-      <c r="AI52" s="80"/>
-      <c r="AJ52" s="80"/>
-      <c r="AK52" s="80"/>
-      <c r="AL52" s="80"/>
-      <c r="AM52" s="80"/>
-      <c r="AN52" s="80"/>
-      <c r="AO52" s="80"/>
-      <c r="AP52" s="80"/>
-      <c r="AQ52" s="80"/>
-      <c r="AR52" s="80"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="180"/>
+      <c r="K52" s="180"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="180"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="180"/>
+      <c r="S52" s="180"/>
+      <c r="T52" s="180"/>
+      <c r="U52" s="180"/>
+      <c r="V52" s="180"/>
+      <c r="W52" s="180"/>
+      <c r="X52" s="180"/>
+      <c r="Y52" s="180"/>
+      <c r="Z52" s="180"/>
+      <c r="AA52" s="180"/>
+      <c r="AB52" s="180"/>
+      <c r="AC52" s="180"/>
+      <c r="AD52" s="180"/>
+      <c r="AE52" s="180"/>
+      <c r="AF52" s="180"/>
+      <c r="AG52" s="180"/>
+      <c r="AH52" s="180"/>
+      <c r="AI52" s="180"/>
+      <c r="AJ52" s="180"/>
+      <c r="AK52" s="180"/>
+      <c r="AL52" s="180"/>
+      <c r="AM52" s="180"/>
+      <c r="AN52" s="180"/>
+      <c r="AO52" s="180"/>
+      <c r="AP52" s="180"/>
+      <c r="AQ52" s="180"/>
+      <c r="AR52" s="180"/>
     </row>
     <row r="53" spans="1:46">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
-      <c r="AA53" s="80"/>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="80"/>
-      <c r="AD53" s="80"/>
-      <c r="AE53" s="80"/>
-      <c r="AF53" s="80"/>
-      <c r="AG53" s="80"/>
-      <c r="AH53" s="80"/>
-      <c r="AI53" s="80"/>
-      <c r="AJ53" s="80"/>
-      <c r="AK53" s="80"/>
-      <c r="AL53" s="80"/>
-      <c r="AM53" s="80"/>
-      <c r="AN53" s="80"/>
-      <c r="AO53" s="80"/>
-      <c r="AP53" s="80"/>
-      <c r="AQ53" s="80"/>
-      <c r="AR53" s="80"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="180"/>
+      <c r="G53" s="180"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="180"/>
+      <c r="K53" s="180"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="180"/>
+      <c r="N53" s="180"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="180"/>
+      <c r="Q53" s="180"/>
+      <c r="R53" s="180"/>
+      <c r="S53" s="180"/>
+      <c r="T53" s="180"/>
+      <c r="U53" s="180"/>
+      <c r="V53" s="180"/>
+      <c r="W53" s="180"/>
+      <c r="X53" s="180"/>
+      <c r="Y53" s="180"/>
+      <c r="Z53" s="180"/>
+      <c r="AA53" s="180"/>
+      <c r="AB53" s="180"/>
+      <c r="AC53" s="180"/>
+      <c r="AD53" s="180"/>
+      <c r="AE53" s="180"/>
+      <c r="AF53" s="180"/>
+      <c r="AG53" s="180"/>
+      <c r="AH53" s="180"/>
+      <c r="AI53" s="180"/>
+      <c r="AJ53" s="180"/>
+      <c r="AK53" s="180"/>
+      <c r="AL53" s="180"/>
+      <c r="AM53" s="180"/>
+      <c r="AN53" s="180"/>
+      <c r="AO53" s="180"/>
+      <c r="AP53" s="180"/>
+      <c r="AQ53" s="180"/>
+      <c r="AR53" s="180"/>
     </row>
     <row r="54" spans="1:46">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
-      <c r="AA54" s="80"/>
-      <c r="AB54" s="80"/>
-      <c r="AC54" s="80"/>
-      <c r="AD54" s="80"/>
-      <c r="AE54" s="80"/>
-      <c r="AF54" s="80"/>
-      <c r="AG54" s="80"/>
-      <c r="AH54" s="80"/>
-      <c r="AI54" s="80"/>
-      <c r="AJ54" s="80"/>
-      <c r="AK54" s="80"/>
-      <c r="AL54" s="80"/>
-      <c r="AM54" s="80"/>
-      <c r="AN54" s="80"/>
-      <c r="AO54" s="80"/>
-      <c r="AP54" s="80"/>
-      <c r="AQ54" s="80"/>
-      <c r="AR54" s="80"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="180"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="180"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="180"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="180"/>
+      <c r="O54" s="180"/>
+      <c r="P54" s="180"/>
+      <c r="Q54" s="180"/>
+      <c r="R54" s="180"/>
+      <c r="S54" s="180"/>
+      <c r="T54" s="180"/>
+      <c r="U54" s="180"/>
+      <c r="V54" s="180"/>
+      <c r="W54" s="180"/>
+      <c r="X54" s="180"/>
+      <c r="Y54" s="180"/>
+      <c r="Z54" s="180"/>
+      <c r="AA54" s="180"/>
+      <c r="AB54" s="180"/>
+      <c r="AC54" s="180"/>
+      <c r="AD54" s="180"/>
+      <c r="AE54" s="180"/>
+      <c r="AF54" s="180"/>
+      <c r="AG54" s="180"/>
+      <c r="AH54" s="180"/>
+      <c r="AI54" s="180"/>
+      <c r="AJ54" s="180"/>
+      <c r="AK54" s="180"/>
+      <c r="AL54" s="180"/>
+      <c r="AM54" s="180"/>
+      <c r="AN54" s="180"/>
+      <c r="AO54" s="180"/>
+      <c r="AP54" s="180"/>
+      <c r="AQ54" s="180"/>
+      <c r="AR54" s="180"/>
     </row>
     <row r="55" spans="1:46">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="80"/>
-      <c r="S55" s="80"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="80"/>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="80"/>
-      <c r="AD55" s="80"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="80"/>
-      <c r="AH55" s="80"/>
-      <c r="AI55" s="80"/>
-      <c r="AJ55" s="80"/>
-      <c r="AK55" s="80"/>
-      <c r="AL55" s="80"/>
-      <c r="AM55" s="80"/>
-      <c r="AN55" s="80"/>
-      <c r="AO55" s="80"/>
-      <c r="AP55" s="80"/>
-      <c r="AQ55" s="80"/>
-      <c r="AR55" s="80"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="180"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="180"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="180"/>
+      <c r="Q55" s="180"/>
+      <c r="R55" s="180"/>
+      <c r="S55" s="180"/>
+      <c r="T55" s="180"/>
+      <c r="U55" s="180"/>
+      <c r="V55" s="180"/>
+      <c r="W55" s="180"/>
+      <c r="X55" s="180"/>
+      <c r="Y55" s="180"/>
+      <c r="Z55" s="180"/>
+      <c r="AA55" s="180"/>
+      <c r="AB55" s="180"/>
+      <c r="AC55" s="180"/>
+      <c r="AD55" s="180"/>
+      <c r="AE55" s="180"/>
+      <c r="AF55" s="180"/>
+      <c r="AG55" s="180"/>
+      <c r="AH55" s="180"/>
+      <c r="AI55" s="180"/>
+      <c r="AJ55" s="180"/>
+      <c r="AK55" s="180"/>
+      <c r="AL55" s="180"/>
+      <c r="AM55" s="180"/>
+      <c r="AN55" s="180"/>
+      <c r="AO55" s="180"/>
+      <c r="AP55" s="180"/>
+      <c r="AQ55" s="180"/>
+      <c r="AR55" s="180"/>
     </row>
     <row r="56" spans="1:46">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="77"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="77"/>
-      <c r="V56" s="77"/>
-      <c r="W56" s="77"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="77"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="77"/>
-      <c r="AB56" s="77"/>
-      <c r="AC56" s="77"/>
-      <c r="AD56" s="77"/>
-      <c r="AE56" s="77"/>
-      <c r="AF56" s="77"/>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="77"/>
-      <c r="AI56" s="77"/>
-      <c r="AJ56" s="77"/>
-      <c r="AK56" s="77"/>
-      <c r="AL56" s="77"/>
-      <c r="AM56" s="77"/>
-      <c r="AN56" s="77"/>
-      <c r="AO56" s="77"/>
-      <c r="AP56" s="77"/>
-      <c r="AQ56" s="77"/>
-      <c r="AR56" s="77"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="76"/>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="76"/>
+      <c r="AG56" s="76"/>
+      <c r="AH56" s="76"/>
+      <c r="AI56" s="76"/>
+      <c r="AJ56" s="76"/>
+      <c r="AK56" s="76"/>
+      <c r="AL56" s="76"/>
+      <c r="AM56" s="76"/>
+      <c r="AN56" s="76"/>
+      <c r="AO56" s="76"/>
+      <c r="AP56" s="76"/>
+      <c r="AQ56" s="76"/>
+      <c r="AR56" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="280">
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AA7:AR7"/>
-    <mergeCell ref="N1:AG3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="T5:U9"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AA5:AR5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AR8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA9:AR9"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AP6"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="Z38:AI38"/>
+    <mergeCell ref="AJ38:AR38"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="Z36:AI36"/>
+    <mergeCell ref="AJ36:AR36"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="Z35:AI35"/>
+    <mergeCell ref="AJ35:AR35"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="A52:AR52"/>
+    <mergeCell ref="A53:AR53"/>
+    <mergeCell ref="A54:AR54"/>
+    <mergeCell ref="A55:AR55"/>
+    <mergeCell ref="A56:AR56"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AI45"/>
+    <mergeCell ref="AJ45:AR45"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="Z47:AI47"/>
+    <mergeCell ref="AJ47:AR47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AI48"/>
+    <mergeCell ref="AJ48:AR48"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="Z13:AI13"/>
+    <mergeCell ref="Z16:AI16"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AI14"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="Z23:AI23"/>
+    <mergeCell ref="AJ23:AR23"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z21:AI21"/>
+    <mergeCell ref="AJ21:AR21"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="Z20:AI20"/>
+    <mergeCell ref="AJ20:AR20"/>
+    <mergeCell ref="AJ14:AR14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="AJ16:AR16"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AI15"/>
+    <mergeCell ref="AJ15:AR15"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AI17"/>
+    <mergeCell ref="AJ17:AR17"/>
+    <mergeCell ref="Z50:AI50"/>
+    <mergeCell ref="AJ50:AR50"/>
+    <mergeCell ref="A50:Y50"/>
+    <mergeCell ref="Z44:AI44"/>
+    <mergeCell ref="AJ44:AR44"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="Z43:AI43"/>
+    <mergeCell ref="AJ43:AR43"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="A44:Y44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="Z46:AI46"/>
+    <mergeCell ref="AJ46:AR46"/>
+    <mergeCell ref="Z49:AI49"/>
+    <mergeCell ref="AJ49:AR49"/>
+    <mergeCell ref="A49:Y49"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AI42"/>
+    <mergeCell ref="AJ42:AR42"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="Z41:AI41"/>
+    <mergeCell ref="AJ41:AR41"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="Z40:AI40"/>
+    <mergeCell ref="AJ40:AR40"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Z37:AI37"/>
+    <mergeCell ref="AJ37:AR37"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="Z39:AI39"/>
+    <mergeCell ref="AJ39:AR39"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="Z34:AI34"/>
+    <mergeCell ref="AJ34:AR34"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="Z33:AI33"/>
+    <mergeCell ref="AJ33:AR33"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="Z31:AI31"/>
+    <mergeCell ref="AJ31:AR31"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="Z32:AI32"/>
+    <mergeCell ref="AJ32:AR32"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="Z30:AI30"/>
+    <mergeCell ref="AJ30:AR30"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AI29"/>
+    <mergeCell ref="AJ29:AR29"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="Z28:AI28"/>
+    <mergeCell ref="AJ28:AR28"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="Z27:AI27"/>
+    <mergeCell ref="AJ27:AR27"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="Z26:AI26"/>
+    <mergeCell ref="AJ26:AR26"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="Z25:AI25"/>
+    <mergeCell ref="AJ25:AR25"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="Z22:AI22"/>
+    <mergeCell ref="AJ22:AR22"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="Z24:AI24"/>
+    <mergeCell ref="AJ24:AR24"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="AJ18:AR18"/>
     <mergeCell ref="L19:O19"/>
@@ -5395,240 +5665,28 @@
     <mergeCell ref="AJ13:AR13"/>
     <mergeCell ref="T12:Y12"/>
     <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="Z22:AI22"/>
-    <mergeCell ref="AJ22:AR22"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="Z24:AI24"/>
-    <mergeCell ref="AJ24:AR24"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="Z26:AI26"/>
-    <mergeCell ref="AJ26:AR26"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="Z25:AI25"/>
-    <mergeCell ref="AJ25:AR25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="Z28:AI28"/>
-    <mergeCell ref="AJ28:AR28"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="Z27:AI27"/>
-    <mergeCell ref="AJ27:AR27"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="Z30:AI30"/>
-    <mergeCell ref="AJ30:AR30"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AI29"/>
-    <mergeCell ref="AJ29:AR29"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="Z31:AI31"/>
-    <mergeCell ref="AJ31:AR31"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="Z32:AI32"/>
-    <mergeCell ref="AJ32:AR32"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="Z34:AI34"/>
-    <mergeCell ref="AJ34:AR34"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="Z33:AI33"/>
-    <mergeCell ref="AJ33:AR33"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="Z40:AI40"/>
-    <mergeCell ref="AJ40:AR40"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="Z37:AI37"/>
-    <mergeCell ref="AJ37:AR37"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="Z39:AI39"/>
-    <mergeCell ref="AJ39:AR39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AI42"/>
-    <mergeCell ref="AJ42:AR42"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="Z41:AI41"/>
-    <mergeCell ref="AJ41:AR41"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="Z50:AI50"/>
-    <mergeCell ref="AJ50:AR50"/>
-    <mergeCell ref="A50:Y50"/>
-    <mergeCell ref="Z44:AI44"/>
-    <mergeCell ref="AJ44:AR44"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="Z43:AI43"/>
-    <mergeCell ref="AJ43:AR43"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="A44:Y44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="Z46:AI46"/>
-    <mergeCell ref="AJ46:AR46"/>
-    <mergeCell ref="Z49:AI49"/>
-    <mergeCell ref="AJ49:AR49"/>
-    <mergeCell ref="A49:Y49"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="AJ14:AR14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="AJ16:AR16"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AI15"/>
-    <mergeCell ref="AJ15:AR15"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="Z17:AI17"/>
-    <mergeCell ref="AJ17:AR17"/>
-    <mergeCell ref="AJ48:AR48"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="Z13:AI13"/>
-    <mergeCell ref="Z16:AI16"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AI14"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="Z23:AI23"/>
-    <mergeCell ref="AJ23:AR23"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z21:AI21"/>
-    <mergeCell ref="AJ21:AR21"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="Z20:AI20"/>
-    <mergeCell ref="AJ20:AR20"/>
-    <mergeCell ref="A52:AR52"/>
-    <mergeCell ref="A53:AR53"/>
-    <mergeCell ref="A54:AR54"/>
-    <mergeCell ref="A55:AR55"/>
-    <mergeCell ref="A56:AR56"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AI45"/>
-    <mergeCell ref="AJ45:AR45"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="Z47:AI47"/>
-    <mergeCell ref="AJ47:AR47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AI48"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="Z38:AI38"/>
-    <mergeCell ref="AJ38:AR38"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="Z36:AI36"/>
-    <mergeCell ref="AJ36:AR36"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="Z35:AI35"/>
-    <mergeCell ref="AJ35:AR35"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AR7"/>
+    <mergeCell ref="N1:AG3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="T5:U9"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AA5:AR5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AR8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AR9"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AP6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5643,8 +5701,8 @@
   </sheetPr>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5671,60 +5729,60 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="202" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="204"/>
+      <c r="G2" s="203"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="193" t="s">
+      <c r="M2" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="190" t="s">
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="189" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="191"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193" t="s">
+      <c r="S2" s="190"/>
+      <c r="T2" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="192"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
@@ -5745,10 +5803,10 @@
       <c r="M3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="190" t="s">
+      <c r="N3" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="192"/>
+      <c r="O3" s="190"/>
       <c r="P3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5770,10 +5828,10 @@
       <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="190" t="s">
+      <c r="W3" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="192"/>
+      <c r="X3" s="190"/>
       <c r="Y3" s="43" t="s">
         <v>116</v>
       </c>
@@ -5791,7 +5849,7 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="193" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -5822,11 +5880,11 @@
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="187">
+      <c r="N4" s="181">
         <f>CEILING($C4/0.53,1)*$D4</f>
         <v>16.8</v>
       </c>
-      <c r="O4" s="188"/>
+      <c r="O4" s="182"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -5837,11 +5895,11 @@
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="185">
+      <c r="W4" s="183">
         <f t="shared" ref="W4:W21" si="0">$G4/$X$42</f>
         <v>1.4039355992844365</v>
       </c>
-      <c r="X4" s="186"/>
+      <c r="X4" s="184"/>
       <c r="Y4" s="45"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -5849,7 +5907,7 @@
       <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="189"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -5878,11 +5936,11 @@
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="187">
+      <c r="N5" s="181">
         <f t="shared" ref="N5:N29" si="5">CEILING($C5/0.53,1)*$D5</f>
         <v>16.8</v>
       </c>
-      <c r="O5" s="188"/>
+      <c r="O5" s="182"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -5893,11 +5951,11 @@
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="185">
+      <c r="W5" s="183">
         <f t="shared" si="0"/>
         <v>1.4039355992844365</v>
       </c>
-      <c r="X5" s="186"/>
+      <c r="X5" s="184"/>
       <c r="Y5" s="45"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -5905,7 +5963,7 @@
       <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -5934,11 +5992,11 @@
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="187">
+      <c r="N6" s="181">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
-      <c r="O6" s="188"/>
+      <c r="O6" s="182"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -5949,11 +6007,11 @@
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="185">
+      <c r="W6" s="183">
         <f t="shared" si="0"/>
         <v>1.6872987477638641</v>
       </c>
-      <c r="X6" s="186"/>
+      <c r="X6" s="184"/>
       <c r="Y6" s="45"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -5961,7 +6019,7 @@
       <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5990,11 +6048,11 @@
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="187">
+      <c r="N7" s="181">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
-      <c r="O7" s="188"/>
+      <c r="O7" s="182"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -6005,11 +6063,11 @@
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="185">
+      <c r="W7" s="183">
         <f t="shared" si="0"/>
         <v>1.6872987477638641</v>
       </c>
-      <c r="X7" s="186"/>
+      <c r="X7" s="184"/>
       <c r="Y7" s="45"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -6017,7 +6075,7 @@
       <c r="AC7" s="5"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -6046,11 +6104,11 @@
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="187">
+      <c r="N8" s="181">
         <f t="shared" si="5"/>
         <v>27.51</v>
       </c>
-      <c r="O8" s="188"/>
+      <c r="O8" s="182"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -6061,11 +6119,11 @@
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="185">
+      <c r="W8" s="183">
         <f t="shared" si="0"/>
         <v>2.2989445438282647</v>
       </c>
-      <c r="X8" s="186"/>
+      <c r="X8" s="184"/>
       <c r="Y8" s="45"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -6073,7 +6131,7 @@
       <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="193" t="s">
         <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -6104,11 +6162,11 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="187">
+      <c r="N9" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O9" s="188"/>
+      <c r="O9" s="182"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -6119,11 +6177,11 @@
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="185">
+      <c r="W9" s="183">
         <f t="shared" si="0"/>
         <v>1.1377459749552772</v>
       </c>
-      <c r="X9" s="186"/>
+      <c r="X9" s="184"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -6131,7 +6189,7 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -6160,11 +6218,11 @@
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="187">
+      <c r="N10" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O10" s="188"/>
+      <c r="O10" s="182"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -6175,11 +6233,11 @@
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="185">
+      <c r="W10" s="183">
         <f t="shared" si="0"/>
         <v>1.1377459749552772</v>
       </c>
-      <c r="X10" s="186"/>
+      <c r="X10" s="184"/>
       <c r="Y10" s="45"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -6187,7 +6245,7 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
@@ -6216,11 +6274,11 @@
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="187">
+      <c r="N11" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O11" s="188"/>
+      <c r="O11" s="182"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -6231,11 +6289,11 @@
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="185">
+      <c r="W11" s="183">
         <f t="shared" si="0"/>
         <v>1.4726296958855098</v>
       </c>
-      <c r="X11" s="186"/>
+      <c r="X11" s="184"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -6243,7 +6301,7 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="189"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -6272,11 +6330,11 @@
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="187">
+      <c r="N12" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O12" s="188"/>
+      <c r="O12" s="182"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -6287,11 +6345,11 @@
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="185">
+      <c r="W12" s="183">
         <f t="shared" si="0"/>
         <v>1.4726296958855098</v>
       </c>
-      <c r="X12" s="186"/>
+      <c r="X12" s="184"/>
       <c r="Y12" s="45"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -6299,7 +6357,7 @@
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -6328,11 +6386,11 @@
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="187">
+      <c r="N13" s="181">
         <f t="shared" si="5"/>
         <v>17.150000000000002</v>
       </c>
-      <c r="O13" s="188"/>
+      <c r="O13" s="182"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -6343,11 +6401,11 @@
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="185">
+      <c r="W13" s="183">
         <f t="shared" si="0"/>
         <v>1.6260286225402503</v>
       </c>
-      <c r="X13" s="186"/>
+      <c r="X13" s="184"/>
       <c r="Y13" s="45"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -6355,7 +6413,7 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="193" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -6386,11 +6444,11 @@
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="187">
+      <c r="N14" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O14" s="188"/>
+      <c r="O14" s="182"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -6401,11 +6459,11 @@
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="185">
+      <c r="W14" s="183">
         <f t="shared" si="0"/>
         <v>1.4296958855098389</v>
       </c>
-      <c r="X14" s="186"/>
+      <c r="X14" s="184"/>
       <c r="Y14" s="45"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -6413,7 +6471,7 @@
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="189"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
@@ -6442,11 +6500,11 @@
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="187">
+      <c r="N15" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O15" s="188"/>
+      <c r="O15" s="182"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -6457,11 +6515,11 @@
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="185">
+      <c r="W15" s="183">
         <f t="shared" si="0"/>
         <v>1.4296958855098389</v>
       </c>
-      <c r="X15" s="186"/>
+      <c r="X15" s="184"/>
       <c r="Y15" s="45"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -6469,7 +6527,7 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="189"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -6498,11 +6556,11 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="187">
+      <c r="N16" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O16" s="188"/>
+      <c r="O16" s="182"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -6513,11 +6571,11 @@
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="185">
+      <c r="W16" s="183">
         <f t="shared" si="0"/>
         <v>0.95742397137745971</v>
       </c>
-      <c r="X16" s="186"/>
+      <c r="X16" s="184"/>
       <c r="Y16" s="45"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -6525,7 +6583,7 @@
       <c r="AC16" s="5"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="189"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -6554,11 +6612,11 @@
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="187">
+      <c r="N17" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O17" s="188"/>
+      <c r="O17" s="182"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -6569,11 +6627,11 @@
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="185">
+      <c r="W17" s="183">
         <f t="shared" si="0"/>
         <v>0.95742397137745971</v>
       </c>
-      <c r="X17" s="186"/>
+      <c r="X17" s="184"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -6581,7 +6639,7 @@
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="189"/>
+      <c r="A18" s="193"/>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -6610,11 +6668,11 @@
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="187">
+      <c r="N18" s="181">
         <f t="shared" si="5"/>
         <v>16.649999999999999</v>
       </c>
-      <c r="O18" s="188"/>
+      <c r="O18" s="182"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -6625,11 +6683,11 @@
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="185">
+      <c r="W18" s="183">
         <f t="shared" si="0"/>
         <v>1.3302128801431128</v>
       </c>
-      <c r="X18" s="186"/>
+      <c r="X18" s="184"/>
       <c r="Y18" s="45"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -6637,7 +6695,7 @@
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="193" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -6668,11 +6726,11 @@
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="187">
+      <c r="N19" s="181">
         <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
-      <c r="O19" s="188"/>
+      <c r="O19" s="182"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -6683,11 +6741,11 @@
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="185">
+      <c r="W19" s="183">
         <f t="shared" si="0"/>
         <v>0.91019677996422188</v>
       </c>
-      <c r="X19" s="186"/>
+      <c r="X19" s="184"/>
       <c r="Y19" s="45"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -6695,7 +6753,7 @@
       <c r="AC19" s="5"/>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="189"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
@@ -6724,11 +6782,11 @@
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="187">
+      <c r="N20" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O20" s="188"/>
+      <c r="O20" s="182"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -6739,11 +6797,11 @@
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="185">
+      <c r="W20" s="183">
         <f t="shared" si="0"/>
         <v>1.4726296958855098</v>
       </c>
-      <c r="X20" s="186"/>
+      <c r="X20" s="184"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -6751,7 +6809,7 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="189"/>
+      <c r="A21" s="193"/>
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
@@ -6780,11 +6838,11 @@
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="187">
+      <c r="N21" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O21" s="188"/>
+      <c r="O21" s="182"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -6795,11 +6853,11 @@
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="185">
+      <c r="W21" s="183">
         <f t="shared" si="0"/>
         <v>1.0089445438282647</v>
       </c>
-      <c r="X21" s="186"/>
+      <c r="X21" s="184"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -6807,7 +6865,7 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="189"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -6836,11 +6894,11 @@
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="187">
+      <c r="N22" s="181">
         <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
-      <c r="O22" s="188"/>
+      <c r="O22" s="182"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -6851,11 +6909,11 @@
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="185">
+      <c r="W22" s="183">
         <f t="shared" ref="W22:W29" si="7">$G22/$X$42</f>
         <v>1.6701252236135957</v>
       </c>
-      <c r="X22" s="186"/>
+      <c r="X22" s="184"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -6863,7 +6921,7 @@
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="189"/>
+      <c r="A23" s="193"/>
       <c r="B23" s="5" t="s">
         <v>107</v>
       </c>
@@ -6892,11 +6950,11 @@
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="187">
+      <c r="N23" s="181">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="O23" s="188"/>
+      <c r="O23" s="182"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -6907,11 +6965,11 @@
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="185">
+      <c r="W23" s="183">
         <f t="shared" si="7"/>
         <v>1.4168157423971377</v>
       </c>
-      <c r="X23" s="186"/>
+      <c r="X23" s="184"/>
       <c r="Y23" s="45"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -6919,7 +6977,7 @@
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="189"/>
+      <c r="A24" s="193"/>
       <c r="B24" s="5" t="s">
         <v>108</v>
       </c>
@@ -6948,11 +7006,11 @@
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="187">
+      <c r="N24" s="181">
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="O24" s="188"/>
+      <c r="O24" s="182"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -6963,11 +7021,11 @@
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="185">
+      <c r="W24" s="183">
         <f t="shared" si="7"/>
         <v>0.18032200357781752</v>
       </c>
-      <c r="X24" s="186"/>
+      <c r="X24" s="184"/>
       <c r="Y24" s="45"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -6975,7 +7033,7 @@
       <c r="AC24" s="5"/>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="189"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="5" t="s">
         <v>109</v>
       </c>
@@ -7004,11 +7062,11 @@
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="187">
+      <c r="N25" s="181">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O25" s="188"/>
+      <c r="O25" s="182"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -7019,11 +7077,11 @@
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="185">
+      <c r="W25" s="183">
         <f t="shared" si="7"/>
         <v>1.0304114490161003</v>
       </c>
-      <c r="X25" s="186"/>
+      <c r="X25" s="184"/>
       <c r="Y25" s="45"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -7031,7 +7089,7 @@
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="189"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="5" t="s">
         <v>110</v>
       </c>
@@ -7061,11 +7119,11 @@
       </c>
       <c r="L26" s="13"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="187">
+      <c r="N26" s="181">
         <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
-      <c r="O26" s="188"/>
+      <c r="O26" s="182"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -7076,11 +7134,11 @@
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="185">
+      <c r="W26" s="183">
         <f t="shared" si="7"/>
         <v>0.7212880143112701</v>
       </c>
-      <c r="X26" s="186"/>
+      <c r="X26" s="184"/>
       <c r="Y26" s="45"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -7088,7 +7146,7 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="189"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="5" t="s">
         <v>115</v>
       </c>
@@ -7117,11 +7175,11 @@
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="187">
+      <c r="N27" s="181">
         <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="O27" s="188"/>
+      <c r="O27" s="182"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -7132,11 +7190,11 @@
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="185">
+      <c r="W27" s="183">
         <f t="shared" si="7"/>
         <v>0.33989266547406083</v>
       </c>
-      <c r="X27" s="186"/>
+      <c r="X27" s="184"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -7144,7 +7202,7 @@
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="189"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="5" t="s">
         <v>111</v>
       </c>
@@ -7174,11 +7232,11 @@
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="187">
+      <c r="N28" s="181">
         <f t="shared" si="5"/>
         <v>30.96</v>
       </c>
-      <c r="O28" s="188"/>
+      <c r="O28" s="182"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -7186,11 +7244,11 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="185">
+      <c r="W28" s="183">
         <f t="shared" si="7"/>
         <v>2.9353846153846161</v>
       </c>
-      <c r="X28" s="186"/>
+      <c r="X28" s="184"/>
       <c r="Y28" s="45"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -7198,7 +7256,7 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="189"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="5" t="s">
         <v>112</v>
       </c>
@@ -7227,11 +7285,11 @@
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="187">
+      <c r="N29" s="181">
         <f t="shared" si="5"/>
         <v>19.45</v>
       </c>
-      <c r="O29" s="188"/>
+      <c r="O29" s="182"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -7239,11 +7297,11 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="185">
+      <c r="W29" s="183">
         <f t="shared" si="7"/>
         <v>1.635330948121646</v>
       </c>
-      <c r="X29" s="186"/>
+      <c r="X29" s="184"/>
       <c r="Y29" s="45"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -7251,10 +7309,10 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="207" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="10"/>
@@ -7274,11 +7332,11 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="206">
+      <c r="N30" s="187">
         <f>SUM(N4:N29)</f>
         <v>401.12000000000006</v>
       </c>
-      <c r="O30" s="207"/>
+      <c r="O30" s="188"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9">
         <f>CEILING($E31/30,1)</f>
@@ -7295,11 +7353,11 @@
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="205">
+      <c r="W30" s="185">
         <f>SUM(W4:X29)</f>
         <v>34.753987477638638</v>
       </c>
-      <c r="X30" s="196"/>
+      <c r="X30" s="186"/>
       <c r="Y30" s="44">
         <v>1</v>
       </c>
@@ -7315,8 +7373,8 @@
       </c>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="181"/>
-      <c r="B31" s="184"/>
+      <c r="A31" s="205"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="55">
@@ -7349,7 +7407,7 @@
       <c r="AC31" s="52"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="182"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="56" t="s">
         <v>114</v>
       </c>
@@ -7417,10 +7475,10 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="187" t="s">
+      <c r="N34" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="188"/>
+      <c r="O34" s="182"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -7456,10 +7514,10 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="187" t="s">
+      <c r="N35" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="188"/>
+      <c r="O35" s="182"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -7722,7 +7780,7 @@
       <c r="B40" s="194"/>
       <c r="C40" s="195"/>
       <c r="D40" s="195"/>
-      <c r="E40" s="196"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="13"/>
@@ -7752,35 +7810,35 @@
       <c r="AC40" s="22"/>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="197"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="197"/>
-      <c r="L41" s="197"/>
-      <c r="M41" s="197"/>
-      <c r="N41" s="197"/>
-      <c r="O41" s="197"/>
-      <c r="P41" s="197"/>
-      <c r="Q41" s="197"/>
-      <c r="R41" s="197"/>
-      <c r="S41" s="197"/>
-      <c r="T41" s="197"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197"/>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="197"/>
-      <c r="AB41" s="197"/>
-      <c r="AC41" s="197"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="196"/>
+      <c r="Q41" s="196"/>
+      <c r="R41" s="196"/>
+      <c r="S41" s="196"/>
+      <c r="T41" s="196"/>
+      <c r="U41" s="196"/>
+      <c r="V41" s="196"/>
+      <c r="W41" s="196"/>
+      <c r="X41" s="196"/>
+      <c r="Y41" s="196"/>
+      <c r="Z41" s="196"/>
+      <c r="AA41" s="196"/>
+      <c r="AB41" s="196"/>
+      <c r="AC41" s="196"/>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="1"/>
@@ -7827,6 +7885,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:AC2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="W7:X7"/>
@@ -7843,65 +7960,6 @@
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="W15:X15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:AC2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A41:AC41"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W27:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7932,50 +7990,50 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="202" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="201" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="193" t="s">
+      <c r="K2" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="190" t="s">
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -8022,7 +8080,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -8074,7 +8132,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="189"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8124,7 +8182,7 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -8174,7 +8232,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -8224,7 +8282,7 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -8274,7 +8332,7 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="193" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -8326,7 +8384,7 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -8376,7 +8434,7 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
@@ -8426,7 +8484,7 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="189"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -8778,7 +8836,7 @@
       <c r="B21" s="194"/>
       <c r="C21" s="195"/>
       <c r="D21" s="195"/>
-      <c r="E21" s="196"/>
+      <c r="E21" s="186"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -8806,27 +8864,27 @@
       <c r="U21" s="22"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="197"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="197"/>
-      <c r="S22" s="197"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="197"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="196"/>
+      <c r="P22" s="196"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="196"/>
+      <c r="S22" s="196"/>
+      <c r="T22" s="196"/>
+      <c r="U22" s="196"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1"/>
@@ -8862,11 +8920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1FAE6E-0B43-4EFB-A4D5-19BD5257E4FE}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8893,15 +8951,15 @@
       <c r="D1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209" t="s">
+      <c r="F1" s="210"/>
+      <c r="G1" s="210" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
       <c r="J1" s="63" t="s">
         <v>177</v>
       </c>
@@ -8929,7 +8987,7 @@
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="209" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8946,7 +9004,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="208"/>
+      <c r="A4" s="209"/>
       <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
@@ -8958,7 +9016,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="208"/>
+      <c r="A5" s="209"/>
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
@@ -8973,7 +9031,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="208"/>
+      <c r="A6" s="209"/>
       <c r="B6" s="1" t="s">
         <v>147</v>
       </c>
@@ -8985,7 +9043,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="208"/>
+      <c r="A7" s="209"/>
       <c r="B7" s="1" t="s">
         <v>148</v>
       </c>
@@ -8997,7 +9055,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="208"/>
+      <c r="A8" s="209"/>
       <c r="B8" s="1" t="s">
         <v>149</v>
       </c>
@@ -9006,7 +9064,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="208"/>
+      <c r="A9" s="209"/>
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
@@ -9021,7 +9079,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="208"/>
+      <c r="A10" s="209"/>
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -9116,7 +9174,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="209" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -9133,7 +9191,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="208"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="1" t="s">
         <v>153</v>
       </c>
@@ -9532,4 +9590,826 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1D806A-E3EC-43F2-838B-B9CB37A46097}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="9" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="212" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>243</v>
+      </c>
+      <c r="J2" s="14">
+        <f>F2/E2</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="K2" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+      <c r="J3" s="14">
+        <f>F3/E3</f>
+        <v>4.25</v>
+      </c>
+      <c r="K3" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>272</v>
+      </c>
+      <c r="J4" s="14">
+        <f>F4/E4</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="K4" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>141</v>
+      </c>
+      <c r="J5" s="14">
+        <f>F5/E5</f>
+        <v>4.40625</v>
+      </c>
+      <c r="K5" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="J6" s="14">
+        <f>F6/E6</f>
+        <v>5.5882352941176467</v>
+      </c>
+      <c r="K6" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>198</v>
+      </c>
+      <c r="J7" s="14">
+        <f>F7/E7</f>
+        <v>8.25</v>
+      </c>
+      <c r="K7" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="J8" s="14">
+        <f>F8/E8</f>
+        <v>6.25</v>
+      </c>
+      <c r="K8" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>310</v>
+      </c>
+      <c r="J9" s="14">
+        <f>F9/E9</f>
+        <v>12.916666666666666</v>
+      </c>
+      <c r="K9" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>190</v>
+      </c>
+      <c r="J10" s="14">
+        <f>F10/E10</f>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="K10" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>165</v>
+      </c>
+      <c r="J11" s="14">
+        <f>F11/E11</f>
+        <v>6.875</v>
+      </c>
+      <c r="K11" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>98</v>
+      </c>
+      <c r="J12" s="14">
+        <f>F12/E12</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="K12" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>185</v>
+      </c>
+      <c r="J13" s="14">
+        <f>F13/E13</f>
+        <v>7.708333333333333</v>
+      </c>
+      <c r="K13" s="211" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="14">
+        <f>F14/E14</f>
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14">
+        <f>F15/E15</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K15" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="14">
+        <f>F16/E16</f>
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14">
+        <f>F17/E17</f>
+        <v>0.24</v>
+      </c>
+      <c r="K17" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="14">
+        <f>F18/E18</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="K18" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="14">
+        <f>F19/E19</f>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="K19" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="J20" s="14">
+        <f>F20/E20</f>
+        <v>0.25</v>
+      </c>
+      <c r="K20" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="14">
+        <f>F21/E21</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="K21" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="J22" s="14">
+        <f>F22/E22</f>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="K22" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" ref="J23:J32" si="0">F23/E23</f>
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="K25" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="K26" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K27" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K28" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K29" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K30" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K31" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="K32" s="211" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>